--- a/public/static/template/xjlbyg.xlsx
+++ b/public/static/template/xjlbyg.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>收支项目</t>
   </si>
   <si>
+    <t>合计</t>
+  </si>
+  <si>
     <t>1月</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
   </si>
   <si>
     <t>期末现金余额(资金缺口）</t>
+  </si>
+  <si>
+    <t>现金净流出</t>
   </si>
 </sst>
 </file>
@@ -118,13 +124,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,15 +159,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,8 +180,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +279,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -199,99 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,192 +318,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -511,6 +523,34 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +583,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -563,26 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -594,6 +623,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,154 +657,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,12 +815,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1098,380 +1176,442 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.3035714285714" customWidth="1"/>
+    <col min="1" max="1" width="39.9642857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A5" s="5" t="s">
+      <c r="B3" s="4">
+        <f>B4+B11</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="B4" s="4">
+        <f>B5+B6+B7+B8+B9+B10</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A7" s="5" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A8" s="5" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A9" s="5" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A12" s="4" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A13" s="4" t="s">
+      <c r="B11" s="4">
+        <f>C11+D11+E11+F11+G11+H11+I11+J11+K11+L11+M11+N11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A14" s="4" t="s">
+      <c r="B12" s="4">
+        <f>B13+B14+B15+B16</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A15" s="4" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A16" s="4" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A17" s="4" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A18" s="2" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A19" s="2" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A20" s="2" t="s">
+      <c r="B18" s="13">
+        <f>B2+B3+B12+B17</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="13">
+        <f>B18+B19</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:14">
+      <c r="A21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="17">
+        <f>B20-B2</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/static/template/xjlbyg.xlsx
+++ b/public/static/template/xjlbyg.xlsx
@@ -123,20 +123,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -146,6 +158,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -159,14 +178,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,48 +262,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,31 +307,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,39 +322,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,43 +338,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,25 +476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,98 +522,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -540,17 +560,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,8 +572,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,18 +595,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,26 +651,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,204 +662,195 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,439 +1175,478 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.9642857142857" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.2857142857143" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="6">
+        <f>C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <f>B4+B11</f>
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <f>B5+B6+B7+B8+B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="B5" s="10">
+        <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="B6" s="10">
+        <f>C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="B7" s="10">
+        <f>C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="B8" s="10">
+        <f>C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="B9" s="10">
+        <f>C9+D9+E9+F9+G9+H9+I9+J9+K9+L9+M9+N9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="B10" s="10">
+        <f>C10+D10+E10+F10+G10+H10+I10+J10+K10+L10+M10+N10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <f>C11+D11+E11+F11+G11+H11+I11+J11+K11+L11+M11+N11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <f>B13+B14+B15+B16</f>
         <v>0</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="B13" s="6">
+        <f>C13+D13+E13+F13+G13+H13+I13+J13+K13+L13+M13+N13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="B14" s="6">
+        <f>C14+D14+E14+F14+G14+H14+I14+J14+K14+L14+M14+N14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="B15" s="12">
+        <f>C15+D15+E15+F15+G15+H15+I15+J15+K15+L15+M15+N15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="B16" s="6">
+        <f>C16+D16+E16+F16+G16+H16+I16+J16+K16+L16+M16+N16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="B17" s="6">
+        <f>C17+D17+E17+F17+G17+H17+I17+J17+K17+L17+M17+N17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="6">
         <f>B2+B3+B12+B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="B19" s="6">
+        <f>C19+D19+E19+F19+G19+H19+I19+J19+K19+L19+M19+N19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="6">
         <f>B18+B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="1:14">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="6">
         <f>B20-B2</f>
         <v>0</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/static/template/xjlbyg.xlsx
+++ b/public/static/template/xjlbyg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11820"/>
+    <workbookView windowWidth="28125" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="现金流表-预算" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>收支项目</t>
   </si>
@@ -123,14 +123,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,8 +178,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,81 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -292,10 +300,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,26 +316,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,192 +331,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -560,11 +553,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +595,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,17 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -615,6 +640,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,17 +670,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,152 +692,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,10 +847,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,7 +859,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -847,63 +877,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1170,18 +1203,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.3583333333333" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.2857142857143" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.8583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.2833333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:14">
@@ -1234,20 +1267,44 @@
       </c>
       <c r="B2" s="6">
         <f>C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-8</v>
+      </c>
+      <c r="G2" s="7">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7">
+        <v>8</v>
+      </c>
+      <c r="K2" s="7">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7">
+        <v>8</v>
+      </c>
+      <c r="M2" s="7">
+        <v>8</v>
+      </c>
+      <c r="N2" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:14">
       <c r="A3" s="8" t="s">
@@ -1255,20 +1312,44 @@
       </c>
       <c r="B3" s="6">
         <f>B4+B11</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+        <v>407</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7">
+        <v>10</v>
+      </c>
+      <c r="M3" s="7">
+        <v>11</v>
+      </c>
+      <c r="N3" s="7">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:14">
       <c r="A4" s="8" t="s">
@@ -1276,167 +1357,359 @@
       </c>
       <c r="B4" s="6">
         <f>B5+B6+B7+B8+B9+B10</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>10</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10">
-        <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+        <f t="shared" ref="B5:B11" si="0">C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5</f>
+        <v>39</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>13</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:14">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="10">
-        <f>C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>14</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="10">
-        <f>C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:14">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10">
-        <f>C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>14</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10">
-        <f>C9+D9+E9+F9+G9+H9+I9+J9+K9+L9+M9+N9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>15</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>17</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:14">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="10">
-        <f>C10+D10+E10+F10+G10+H10+I10+J10+K10+L10+M10+N10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>16</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:14">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="6">
-        <f>C11+D11+E11+F11+G11+H11+I11+J11+K11+L11+M11+N11</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>19</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="1:14">
       <c r="A12" s="8" t="s">
@@ -1444,20 +1717,44 @@
       </c>
       <c r="B12" s="6">
         <f>B13+B14+B15+B16</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>20</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="1:14">
       <c r="A13" s="8" t="s">
@@ -1465,20 +1762,44 @@
       </c>
       <c r="B13" s="6">
         <f>C13+D13+E13+F13+G13+H13+I13+J13+K13+L13+M13+N13</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>21</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:14">
       <c r="A14" s="8" t="s">
@@ -1486,20 +1807,44 @@
       </c>
       <c r="B14" s="6">
         <f>C14+D14+E14+F14+G14+H14+I14+J14+K14+L14+M14+N14</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>16</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>22</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:14">
       <c r="A15" s="11" t="s">
@@ -1507,20 +1852,44 @@
       </c>
       <c r="B15" s="12">
         <f>C15+D15+E15+F15+G15+H15+I15+J15+K15+L15+M15+N15</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>17</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>23</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:14">
       <c r="A16" s="8" t="s">
@@ -1528,20 +1897,44 @@
       </c>
       <c r="B16" s="6">
         <f>C16+D16+E16+F16+G16+H16+I16+J16+K16+L16+M16+N16</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="C16" s="7">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>18</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="1:14">
       <c r="A17" s="8" t="s">
@@ -1549,20 +1942,44 @@
       </c>
       <c r="B17" s="6">
         <f>C17+D17+E17+F17+G17+H17+I17+J17+K17+L17+M17+N17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="1:14">
       <c r="A18" s="5" t="s">
@@ -1570,20 +1987,44 @@
       </c>
       <c r="B18" s="6">
         <f>B2+B3+B12+B17</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+        <v>679</v>
+      </c>
+      <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>20</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:14">
       <c r="A19" s="5" t="s">
@@ -1591,20 +2032,42 @@
       </c>
       <c r="B19" s="6">
         <f>C19+D19+E19+F19+G19+H19+I19+J19+K19+L19+M19+N19</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>21</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:14">
       <c r="A20" s="5" t="s">
@@ -1612,28 +2075,50 @@
       </c>
       <c r="B20" s="6">
         <f>B18+B19</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customHeight="1" spans="1:14">
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="13">
         <f>B20-B2</f>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1646,9 +2131,12 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B21:N21"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
